--- a/baseDesign/基本設計-宿題/魏/帳票レイアウト.xlsx
+++ b/baseDesign/基本設計-宿題/魏/帳票レイアウト.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="取引先一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="契約情報一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="メール送付" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>取引先コード</t>
   </si>
@@ -94,6 +94,102 @@
   </si>
   <si>
     <t>なし</t>
+  </si>
+  <si>
+    <t>契約日</t>
+  </si>
+  <si>
+    <t>取引開始日</t>
+  </si>
+  <si>
+    <t>取引終了日</t>
+  </si>
+  <si>
+    <t>年限</t>
+  </si>
+  <si>
+    <t>更新区分</t>
+  </si>
+  <si>
+    <t>契約書保存サーバー</t>
+  </si>
+  <si>
+    <t>契約書保存パス</t>
+  </si>
+  <si>
+    <t>契約書ファイル名</t>
+  </si>
+  <si>
+    <t>1年</t>
+  </si>
+  <si>
+    <t>新規</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>http://xxx</t>
+  </si>
+  <si>
+    <t>XXX.xlsx</t>
+  </si>
+  <si>
+    <t>タイトル：</t>
+  </si>
+  <si>
+    <t>タイトル名</t>
+  </si>
+  <si>
+    <t>FROM:</t>
+  </si>
+  <si>
+    <t>XXXX@XXXX.com</t>
+  </si>
+  <si>
+    <t>To：</t>
+  </si>
+  <si>
+    <t>AAAA@XXXX.com</t>
+  </si>
+  <si>
+    <t>CC:</t>
+  </si>
+  <si>
+    <t>BBBB@XXXX.com</t>
+  </si>
+  <si>
+    <t>BCC:</t>
+  </si>
+  <si>
+    <t>CCCC@XXXX.com</t>
+  </si>
+  <si>
+    <t>いつもお世話になっております。</t>
+  </si>
+  <si>
+    <t>XXXです。</t>
+  </si>
+  <si>
+    <t>本文</t>
+  </si>
+  <si>
+    <t>天時情報システム　営業部</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>アドレス：XXX＠XXX.com</t>
+  </si>
+  <si>
+    <t>TEL：</t>
+  </si>
+  <si>
+    <t>000−0000−0000</t>
+  </si>
+  <si>
+    <t>FAX：</t>
   </si>
 </sst>
 </file>
@@ -101,12 +197,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,44 +229,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,36 +238,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,15 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,8 +265,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,11 +294,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,13 +364,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,73 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,31 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,25 +472,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,19 +514,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,8 +561,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,9 +623,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,49 +650,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,215 +660,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1075,21 +1167,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="13" max="13" width="11.5"/>
     <col min="15" max="15" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" ht="17" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1227,7 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2366,41 +2458,994 @@
     <hyperlink ref="G24" r:id="rId1" display="tenji@gmail.com"/>
     <hyperlink ref="G25" r:id="rId1" display="tenji@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="2" max="4" width="12.0769230769231"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L2">
+        <v>100001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N2">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L3">
+        <v>100001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N3">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L4">
+        <v>100001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N4">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L5">
+        <v>100001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N5">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L6">
+        <v>100001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N6">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L7">
+        <v>100001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N7">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L8">
+        <v>100001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N8">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L9">
+        <v>100001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N9">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L10">
+        <v>100001</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N10">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L11">
+        <v>100001</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N11">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L12">
+        <v>100001</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N12">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L13">
+        <v>100001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N13">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L14">
+        <v>100001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N14">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L15">
+        <v>100001</v>
+      </c>
+      <c r="M15" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N15">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L16">
+        <v>100001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N16">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L17">
+        <v>100001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N17">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L18">
+        <v>100001</v>
+      </c>
+      <c r="M18" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N18">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44180</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44546</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="3">
+        <v>44175</v>
+      </c>
+      <c r="L19">
+        <v>100001</v>
+      </c>
+      <c r="M19" s="3">
+        <v>44175</v>
+      </c>
+      <c r="N19">
+        <v>100001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H3" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H4" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H5" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H6" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H7" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H8" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H9" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H10" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H11" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H12" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H13" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H14" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H15" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H16" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H17" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H18" r:id="rId1" display="http://xxx"/>
+    <hyperlink ref="H19" r:id="rId1" display="http://xxx"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="XXXX@XXXX.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="AAAA@XXXX.com" tooltip="mailto:AAAA@XXXX.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="BBBB@XXXX.com" tooltip="mailto:BBBB@XXXX.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="CCCC@XXXX.com" tooltip="mailto:CCCC@XXXX.com"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
